--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H2">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I2">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J2">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N2">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O2">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P2">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q2">
-        <v>207.3684570338411</v>
+        <v>246.418119393888</v>
       </c>
       <c r="R2">
-        <v>207.3684570338411</v>
+        <v>2217.763074544992</v>
       </c>
       <c r="S2">
-        <v>0.01700029734717736</v>
+        <v>0.01671930547706707</v>
       </c>
       <c r="T2">
-        <v>0.01700029734717736</v>
+        <v>0.01827077388240445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H3">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I3">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J3">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N3">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O3">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P3">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q3">
-        <v>35.24657489547036</v>
+        <v>42.389295207168</v>
       </c>
       <c r="R3">
-        <v>35.24657489547036</v>
+        <v>381.503656864512</v>
       </c>
       <c r="S3">
-        <v>0.002889553513892267</v>
+        <v>0.002876085481333299</v>
       </c>
       <c r="T3">
-        <v>0.002889553513892267</v>
+        <v>0.00314297191160151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H4">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I4">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J4">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N4">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O4">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P4">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q4">
-        <v>685.3243227956834</v>
+        <v>815.5880150127839</v>
       </c>
       <c r="R4">
-        <v>685.3243227956834</v>
+        <v>7340.292135115054</v>
       </c>
       <c r="S4">
-        <v>0.05618365219777985</v>
+        <v>0.05533710426803833</v>
       </c>
       <c r="T4">
-        <v>0.05618365219777985</v>
+        <v>0.06047211235988057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H5">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I5">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J5">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N5">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O5">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P5">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q5">
-        <v>655.5070868912126</v>
+        <v>825.570196757904</v>
       </c>
       <c r="R5">
-        <v>655.5070868912126</v>
+        <v>7430.131770821136</v>
       </c>
       <c r="S5">
-        <v>0.05373920194870356</v>
+        <v>0.05601438865903512</v>
       </c>
       <c r="T5">
-        <v>0.05373920194870356</v>
+        <v>0.06121224537431456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.1246826501613</v>
+        <v>23.959728</v>
       </c>
       <c r="H6">
-        <v>22.1246826501613</v>
+        <v>71.879184</v>
       </c>
       <c r="I6">
-        <v>0.1478408270576501</v>
+        <v>0.1471048789571275</v>
       </c>
       <c r="J6">
-        <v>0.1478408270576501</v>
+        <v>0.1548696879699961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N6">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O6">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P6">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q6">
-        <v>219.9057920223445</v>
+        <v>238.145224644288</v>
       </c>
       <c r="R6">
-        <v>219.9057920223445</v>
+        <v>1428.871347865728</v>
       </c>
       <c r="S6">
-        <v>0.01802812205009709</v>
+        <v>0.01615799507165368</v>
       </c>
       <c r="T6">
-        <v>0.01802812205009709</v>
+        <v>0.01177158444179496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H7">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I7">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J7">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N7">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O7">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P7">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q7">
-        <v>731.6684021199487</v>
+        <v>876.8484514484045</v>
       </c>
       <c r="R7">
-        <v>731.6684021199487</v>
+        <v>7891.636063035639</v>
       </c>
       <c r="S7">
-        <v>0.05998299149973121</v>
+        <v>0.05949358412814311</v>
       </c>
       <c r="T7">
-        <v>0.05998299149973121</v>
+        <v>0.06501429288136862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H8">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I8">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J8">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N8">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O8">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P8">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q8">
-        <v>124.3622366817406</v>
+        <v>150.8370729872409</v>
       </c>
       <c r="R8">
-        <v>124.3622366817406</v>
+        <v>1357.533656885168</v>
       </c>
       <c r="S8">
-        <v>0.01019535484128435</v>
+        <v>0.01023419506139975</v>
       </c>
       <c r="T8">
-        <v>0.01019535484128435</v>
+        <v>0.01118387746977494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H9">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I9">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J9">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N9">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O9">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P9">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q9">
-        <v>2418.063766139822</v>
+        <v>2902.169246899851</v>
       </c>
       <c r="R9">
-        <v>2418.063766139822</v>
+        <v>26119.52322209866</v>
       </c>
       <c r="S9">
-        <v>0.1982355639657579</v>
+        <v>0.1969102528029106</v>
       </c>
       <c r="T9">
-        <v>0.1982355639657579</v>
+        <v>0.2151825450539105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H10">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I10">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J10">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N10">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O10">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P10">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q10">
-        <v>2312.858135245353</v>
+        <v>2937.689608092504</v>
       </c>
       <c r="R10">
-        <v>2312.858135245353</v>
+        <v>26439.20647283253</v>
       </c>
       <c r="S10">
-        <v>0.1896106890287202</v>
+        <v>0.1993202856807545</v>
       </c>
       <c r="T10">
-        <v>0.1896106890287202</v>
+        <v>0.2178162169980377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.0636140790338</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H11">
-        <v>78.0636140790338</v>
+        <v>255.773201</v>
       </c>
       <c r="I11">
-        <v>0.52163411566355</v>
+        <v>0.5234545480313474</v>
       </c>
       <c r="J11">
-        <v>0.52163411566355</v>
+        <v>0.5510846621458181</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N11">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O11">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P11">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q11">
-        <v>775.9045023884859</v>
+        <v>847.4103769755321</v>
       </c>
       <c r="R11">
-        <v>775.9045023884859</v>
+        <v>5084.462261853193</v>
       </c>
       <c r="S11">
-        <v>0.06360951632805628</v>
+        <v>0.05749623035813942</v>
       </c>
       <c r="T11">
-        <v>0.06360951632805628</v>
+        <v>0.0418877297427263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H12">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I12">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J12">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N12">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O12">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P12">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q12">
-        <v>112.4662458747303</v>
+        <v>141.2847950124507</v>
       </c>
       <c r="R12">
-        <v>112.4662458747303</v>
+        <v>1271.563155112056</v>
       </c>
       <c r="S12">
-        <v>0.009220108249535541</v>
+        <v>0.009586079355236549</v>
       </c>
       <c r="T12">
-        <v>0.009220108249535541</v>
+        <v>0.01047561984907502</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H13">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I13">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J13">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N13">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O13">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P13">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q13">
-        <v>19.11597364004671</v>
+        <v>24.30406862449066</v>
       </c>
       <c r="R13">
-        <v>19.11597364004671</v>
+        <v>218.736617620416</v>
       </c>
       <c r="S13">
-        <v>0.001567148835507632</v>
+        <v>0.001649014888466597</v>
       </c>
       <c r="T13">
-        <v>0.001567148835507632</v>
+        <v>0.001802035269779449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H14">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I14">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J14">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N14">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O14">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P14">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q14">
-        <v>371.6855248573032</v>
+        <v>467.620586502012</v>
       </c>
       <c r="R14">
-        <v>371.6855248573032</v>
+        <v>4208.585278518108</v>
       </c>
       <c r="S14">
-        <v>0.03047119379966578</v>
+        <v>0.03172774572065955</v>
       </c>
       <c r="T14">
-        <v>0.03047119379966578</v>
+        <v>0.03467192274557845</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H15">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I15">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J15">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N15">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O15">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P15">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q15">
-        <v>355.5141522555878</v>
+        <v>473.3439095478387</v>
       </c>
       <c r="R15">
-        <v>355.5141522555878</v>
+        <v>4260.095185930549</v>
       </c>
       <c r="S15">
-        <v>0.02914544664084743</v>
+        <v>0.03211606938201401</v>
       </c>
       <c r="T15">
-        <v>0.02914544664084743</v>
+        <v>0.03509628091162348</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.9993177092857</v>
+        <v>13.737404</v>
       </c>
       <c r="H16">
-        <v>11.9993177092857</v>
+        <v>41.212212</v>
       </c>
       <c r="I16">
-        <v>0.08018144632033275</v>
+        <v>0.08434315917965177</v>
       </c>
       <c r="J16">
-        <v>0.08018144632033275</v>
+        <v>0.088795142874651</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N16">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O16">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P16">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q16">
-        <v>119.2658672809926</v>
+        <v>136.541498367984</v>
       </c>
       <c r="R16">
-        <v>119.2658672809926</v>
+        <v>819.2489902079041</v>
       </c>
       <c r="S16">
-        <v>0.009777548794776356</v>
+        <v>0.009264249833275054</v>
       </c>
       <c r="T16">
-        <v>0.009777548794776356</v>
+        <v>0.006749284098594604</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H17">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I17">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J17">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N17">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O17">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P17">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q17">
-        <v>141.7566407099712</v>
+        <v>158.6074861071707</v>
       </c>
       <c r="R17">
-        <v>141.7566407099712</v>
+        <v>1427.467374964536</v>
       </c>
       <c r="S17">
-        <v>0.01162136748026832</v>
+        <v>0.01076141242250399</v>
       </c>
       <c r="T17">
-        <v>0.01162136748026832</v>
+        <v>0.0117600179802062</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H18">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I18">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J18">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N18">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O18">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P18">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q18">
-        <v>24.09448440318432</v>
+        <v>27.28394960241067</v>
       </c>
       <c r="R18">
-        <v>24.09448440318432</v>
+        <v>245.555546421696</v>
       </c>
       <c r="S18">
-        <v>0.001975292699478469</v>
+        <v>0.001851197830523339</v>
       </c>
       <c r="T18">
-        <v>0.001975292699478469</v>
+        <v>0.002022979783429548</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H19">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I19">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J19">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N19">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O19">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P19">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q19">
-        <v>468.4862644297824</v>
+        <v>524.954760138972</v>
       </c>
       <c r="R19">
-        <v>468.4862644297824</v>
+        <v>4724.592841250748</v>
       </c>
       <c r="S19">
-        <v>0.03840702637371183</v>
+        <v>0.0356178312617284</v>
       </c>
       <c r="T19">
-        <v>0.03840702637371183</v>
+        <v>0.03892298887996837</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H20">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I20">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J20">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N20">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O20">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P20">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q20">
-        <v>448.1032647318835</v>
+        <v>531.3798101975989</v>
       </c>
       <c r="R20">
-        <v>448.1032647318835</v>
+        <v>4782.418291778389</v>
       </c>
       <c r="S20">
-        <v>0.03673600532910253</v>
+        <v>0.0360537666340941</v>
       </c>
       <c r="T20">
-        <v>0.03673600532910253</v>
+        <v>0.03939937688703962</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1243864863653</v>
+        <v>15.421724</v>
       </c>
       <c r="H21">
-        <v>15.1243864863653</v>
+        <v>46.26517200000001</v>
       </c>
       <c r="I21">
-        <v>0.1010636781661359</v>
+        <v>0.09468433207297799</v>
       </c>
       <c r="J21">
-        <v>0.1010636781661359</v>
+        <v>0.09968216600119166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N21">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O21">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P21">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q21">
-        <v>150.3271365165528</v>
+        <v>153.282621838704</v>
       </c>
       <c r="R21">
-        <v>150.3271365165528</v>
+        <v>919.6957310322242</v>
       </c>
       <c r="S21">
-        <v>0.01232398628357478</v>
+        <v>0.01040012392412816</v>
       </c>
       <c r="T21">
-        <v>0.01232398628357478</v>
+        <v>0.007576802470547912</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H22">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I22">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J22">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.372720066216599</v>
+        <v>10.28467933333333</v>
       </c>
       <c r="N22">
-        <v>9.372720066216599</v>
+        <v>30.854038</v>
       </c>
       <c r="O22">
-        <v>0.1149905454773203</v>
+        <v>0.113655682908653</v>
       </c>
       <c r="P22">
-        <v>0.1149905454773203</v>
+        <v>0.11797514492277</v>
       </c>
       <c r="Q22">
-        <v>209.3870140295551</v>
+        <v>251.959751450992</v>
       </c>
       <c r="R22">
-        <v>209.3870140295551</v>
+        <v>1511.758508705952</v>
       </c>
       <c r="S22">
-        <v>0.01716578090060789</v>
+        <v>0.01709530152570232</v>
       </c>
       <c r="T22">
-        <v>0.01716578090060789</v>
+        <v>0.01245444032971569</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H23">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I23">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J23">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.59308838245476</v>
+        <v>1.769189333333333</v>
       </c>
       <c r="N23">
-        <v>1.59308838245476</v>
+        <v>5.307568</v>
       </c>
       <c r="O23">
-        <v>0.0195450307699205</v>
+        <v>0.01955125827044465</v>
       </c>
       <c r="P23">
-        <v>0.0195450307699205</v>
+        <v>0.02029430001957787</v>
       </c>
       <c r="Q23">
-        <v>35.5896705684955</v>
+        <v>43.342576880512</v>
       </c>
       <c r="R23">
-        <v>35.5896705684955</v>
+        <v>260.055461283072</v>
       </c>
       <c r="S23">
-        <v>0.002917680879757778</v>
+        <v>0.002940765008721671</v>
       </c>
       <c r="T23">
-        <v>0.002917680879757778</v>
+        <v>0.002142435584992422</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H24">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I24">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J24">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.975554932567</v>
+        <v>34.039953</v>
       </c>
       <c r="N24">
-        <v>30.975554932567</v>
+        <v>102.119859</v>
       </c>
       <c r="O24">
-        <v>0.3800279889929943</v>
+        <v>0.3761744998557516</v>
       </c>
       <c r="P24">
-        <v>0.3800279889929943</v>
+        <v>0.3904709381967389</v>
       </c>
       <c r="Q24">
-        <v>691.9953769468289</v>
+        <v>833.9295586480559</v>
       </c>
       <c r="R24">
-        <v>691.9953769468289</v>
+        <v>5003.577351888335</v>
       </c>
       <c r="S24">
-        <v>0.05673055265607899</v>
+        <v>0.05658156580241475</v>
       </c>
       <c r="T24">
-        <v>0.05673055265607899</v>
+        <v>0.04122136915740103</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H25">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I25">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J25">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.6278639226689</v>
+        <v>34.45657633333334</v>
       </c>
       <c r="N25">
-        <v>29.6278639226689</v>
+        <v>103.369729</v>
       </c>
       <c r="O25">
-        <v>0.3634936506933102</v>
+        <v>0.3807785918192425</v>
       </c>
       <c r="P25">
-        <v>0.3634936506933102</v>
+        <v>0.395250007775399</v>
       </c>
       <c r="Q25">
-        <v>661.8878954042858</v>
+        <v>844.1362270441361</v>
       </c>
       <c r="R25">
-        <v>661.8878954042858</v>
+        <v>5064.817362264816</v>
       </c>
       <c r="S25">
-        <v>0.05426230774593647</v>
+        <v>0.05727408146334476</v>
       </c>
       <c r="T25">
-        <v>0.05426230774593647</v>
+        <v>0.04172588760438362</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.3400477716472</v>
+        <v>24.498552</v>
       </c>
       <c r="H26">
-        <v>22.3400477716472</v>
+        <v>48.997104</v>
       </c>
       <c r="I26">
-        <v>0.1492799327923312</v>
+        <v>0.1504130817588954</v>
       </c>
       <c r="J26">
-        <v>0.1492799327923312</v>
+        <v>0.1055683410083432</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.93938740272694</v>
+        <v>9.939396</v>
       </c>
       <c r="N26">
-        <v>9.93938740272694</v>
+        <v>19.878792</v>
       </c>
       <c r="O26">
-        <v>0.1219427840664546</v>
+        <v>0.1098399671459082</v>
       </c>
       <c r="P26">
-        <v>0.1219427840664546</v>
+        <v>0.0760096090855142</v>
       </c>
       <c r="Q26">
-        <v>222.0463893978282</v>
+        <v>243.500809754592</v>
       </c>
       <c r="R26">
-        <v>222.0463893978282</v>
+        <v>974.003239018368</v>
       </c>
       <c r="S26">
-        <v>0.0182036106099501</v>
+        <v>0.01652136795871187</v>
       </c>
       <c r="T26">
-        <v>0.0182036106099501</v>
+        <v>0.008024208331850424</v>
       </c>
     </row>
   </sheetData>
